--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_011.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_011.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295018AK2.06) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
-  </si>
-  <si>
-    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
-  </si>
-  <si>
-    <t>(295019AK2.14) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Plant air systems</t>
-  </si>
-  <si>
-    <t>(295021AA1.02) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) RHR/shutdown cooling</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295001AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Reactor water level response</t>
-  </si>
-  <si>
-    <t>(295024EK2.02) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295016AA1.05) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) DC electrical distribution </t>
-  </si>
-  <si>
-    <t>(295031EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) High-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295037EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Initiation of ATWS circuitry</t>
-  </si>
-  <si>
-    <t>(295023AK2.11) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Alternate fuel pool makeup systems</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295021AK2.07) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation</t>
+  </si>
+  <si>
+    <t>(295001AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Idle loop/reverse flow</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA2.16) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Vital equipment and control systems to be maintained and operated during a fire</t>
+  </si>
+  <si>
+    <t>(295006AA1.03) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295018AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Isolation of non-essential heat loads</t>
+  </si>
+  <si>
+    <t>(295005AK2.12) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(295038EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Control room ventilation system isolation</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295037EA2.09) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM air header pressure</t>
   </si>
   <si>
     <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
   </si>
   <si>
-    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295032EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) Isolating affected systems</t>
-  </si>
-  <si>
-    <t>(295014AK2.05) Knowledge of the relationship between the (APE 14) INADVERTENT REACTIVITY ADDITION and the following systems or components: (CFR: 41.7 / 45.8) Neutron monitoring system/OPRMs</t>
-  </si>
-  <si>
-    <t>(295002AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Loss of heat sink</t>
-  </si>
-  <si>
-    <t>(295012AA1.01) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell ventilation system</t>
-  </si>
-  <si>
-    <t>(295020AA2.03) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(215004A2.04) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale and downscale trips</t>
-  </si>
-  <si>
-    <t>(223002K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Plant pneumatic systems</t>
+    <t>(295026EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Suppression pool cooling</t>
+  </si>
+  <si>
+    <t>(295030EK2.06) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup system(s)</t>
+  </si>
+  <si>
+    <t>(295019AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Alignment of backup air systems</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
+  </si>
+  <si>
+    <t>(295024EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) HPCI (FWCI)</t>
+  </si>
+  <si>
+    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
+  </si>
+  <si>
+    <t>(295023AK2.05) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295035EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release rate</t>
+  </si>
+  <si>
+    <t>(500000EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Drywell vent</t>
+  </si>
+  <si>
+    <t>(295029EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
+  </si>
+  <si>
+    <t>(295012AK2.01) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell ventilation</t>
+  </si>
+  <si>
+    <t>(295010AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell venting</t>
+  </si>
+  <si>
+    <t>(262001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
+  </si>
+  <si>
+    <t>(215004K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) SRMS/IRM overlap</t>
+  </si>
+  <si>
+    <t>(400000K3.15) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4) (BWR 3, 4)</t>
+  </si>
+  <si>
+    <t>(215005K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) RPS</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t>(211000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(217000K4.17) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Bypass trips and isolation logic</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t xml:space="preserve">(209002A3.02) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start </t>
   </si>
   <si>
-    <t>(262001A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) System power</t>
-  </si>
-  <si>
-    <t>(215005K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ROD BLOCK MONITOR SYSTEM (BWR 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(239002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(264000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Generator load limits</t>
-  </si>
-  <si>
-    <t>(259002K2.01) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(263000A4.04) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Ground detection circuit</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(217000K4.10) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) System isolation</t>
-  </si>
-  <si>
-    <t>(510000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(400000A3.03) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Spent fuel pool cooling</t>
-  </si>
-  <si>
-    <t>(211000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(212000K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
-  </si>
-  <si>
-    <t>(261000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(209001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Abnormal differential pressure indication (leak detection)</t>
-  </si>
-  <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(205000A4.02) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) SDC/RHR valves </t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291002K1.05) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Operation of a flow D/P cell-type flow detector</t>
-  </si>
-  <si>
-    <t>(300000K4.03) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
-  </si>
-  <si>
-    <t>(223002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(209002A3.08) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(262001A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(204000K4.10) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Decay heat removal</t>
-  </si>
-  <si>
-    <t>(223001A2.12) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(245000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Gland seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201005A3.03) Ability to monitor automatic operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.7 / 45.7) Verification of proper functioning/operability </t>
-  </si>
-  <si>
-    <t>(219000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Containment air temperature: Mark III</t>
-  </si>
-  <si>
-    <t>(271000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(233000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Instrument air system</t>
-  </si>
-  <si>
-    <t>(239001K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.5 / 45.3) Steam bypass capability</t>
-  </si>
-  <si>
-    <t>(234000A2.06) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal upper fuel pool water inventory (Mark III)</t>
-  </si>
-  <si>
-    <t>(202001A4.10) Ability to manually operate and/or monitor the (SF1, SF4 RS) RECIRCULATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Seal flow</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+    <t>(223002A4.07) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) Reset of system initiations</t>
+  </si>
+  <si>
+    <t>(261000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Secondary containment differential pressure</t>
+  </si>
+  <si>
+    <t>(205000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low shutdown cooling suction pressure</t>
+  </si>
+  <si>
+    <t>(510000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
+  </si>
+  <si>
+    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(264000K2.02) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel oil pumps</t>
+  </si>
+  <si>
+    <t>(215003K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(203000K4.16) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Manual system initiation</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (291002K1.21) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Effects of voltage changes on neutron detector performance</t>
+  </si>
+  <si>
+    <t>(209001A3.01) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(259002A4.10) Ability to manually operate and/or monitor the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Setpoint setdown reset controls</t>
+  </si>
+  <si>
+    <t>(262001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Load currents</t>
+  </si>
+  <si>
+    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(215004K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Detector operation</t>
+  </si>
+  <si>
+    <t>(400000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
+  </si>
+  <si>
+    <t>(201001A3.04) Ability to monitor automatic operation of the (SF1 CRDH) CRD HYDRAULIC SYSTEM including: (CFR: 41.1-2 / 41.5-7 / 41.9 / 45.1-6 / 45.8 / 45.12-13) System flow</t>
+  </si>
+  <si>
+    <t>(290002K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(201005A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) First stage shell pressure/turbine load</t>
+  </si>
+  <si>
+    <t>(202002A2.06) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor water level</t>
+  </si>
+  <si>
+    <t>(268000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 RW) RADWASTE SYSTEM: (CFR: 41.5 / 45.3) Dilution flow for releases</t>
+  </si>
+  <si>
+    <t>(201003K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM will have on the following systems or system parameters: (CFR: 41.1-2 / 41.7 / 41.10 / 45.1-6 / 4) Rod position and indicating system (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(290003K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.7 / 45.7) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(204000K2.01) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(271000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 OG) OFFGAS SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 / 41.14 / 45.6 to 45.8) Radwaste system</t>
+  </si>
+  <si>
+    <t>(241000K4.11) Knowledge of (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Load following</t>
+  </si>
+  <si>
+    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.09) CONTROL RODS (CFR: 41.1) Explain direction of change in the magnitude of CRW for a change in moderator temperature, void fraction, control rod density, and xenon</t>
+  </si>
+  <si>
+    <t>(292006K1.04) FISSION PRODUCT POISONS (CFR: 41.1) Describe the removal of xenon-135</t>
+  </si>
+  <si>
+    <t>(292008K1.16) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Explain procedures for establishing and controlling heatup rate</t>
+  </si>
+  <si>
+    <t>(293008K1.25) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the reason for forced core recirculation</t>
+  </si>
+  <si>
+    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
+  </si>
+  <si>
+    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.13) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal limits</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AA2.04) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System flow</t>
+  </si>
+  <si>
+    <t>(295017AA2.04) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A2.13) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(211000A2.06) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve position </t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(212000A2.08) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low reactor level</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(288000A2.07) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
-  </si>
-  <si>
-    <t>(292006K1.09) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Initial reactor startup and ascension to rated power</t>
-  </si>
-  <si>
-    <t>(292005K1.01) CONTROL RODS (CFR: 41.1) Relate notch and rod position</t>
-  </si>
-  <si>
-    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295010AA2.04) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell humidity</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(259002A2.01) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of any number of main steam flow inputs</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(510001A2.02) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(241000A2.12) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical power</t>
-  </si>
-  <si>
-    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>K5</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295038</t>
+    <t>295024</t>
   </si>
   <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
     <t>295023</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295027</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
   <si>
     <t>295029</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
     <t>295012</t>
   </si>
   <si>
-    <t>295020</t>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>300000</t>
   </si>
   <si>
     <t>215004</t>
   </si>
   <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
     <t>223002</t>
   </si>
   <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>239002</t>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>262002</t>
   </si>
   <si>
     <t>264000</t>
   </si>
   <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
     <t>259002</t>
   </si>
   <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>300000</t>
+    <t>201001</t>
   </si>
   <si>
     <t>290002</t>
   </si>
   <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
     <t>204000</t>
   </si>
   <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
     <t>271000</t>
   </si>
   <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
     <t>233000</t>
   </si>
   <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>510001</t>
+    <t>288000</t>
   </si>
   <si>
     <t>272000</t>
-  </si>
-  <si>
-    <t>241000</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1854,7 +1854,7 @@
         <v>3.4</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
